--- a/Evidencias Documentales/Iteraciones_2.0.xlsx
+++ b/Evidencias Documentales/Iteraciones_2.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PFT5447 - Portafolio\Doc Hugo Anterior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nibsa\Documents\GitHub\Portafolio_2.0\Evidencias Documentales\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B92D7466-7B34-4398-AB1D-718D129DE40A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>ENCARGADO</t>
   </si>
@@ -86,19 +87,16 @@
     <t>Iteracion 03</t>
   </si>
   <si>
-    <t>Cristopher Torres</t>
-  </si>
-  <si>
-    <t>Nibsa Contreras, Jordan Quiroz</t>
-  </si>
-  <si>
     <t>Jordan Quiroz,Hugo Araya, Nibsa Contreras</t>
+  </si>
+  <si>
+    <t>Nibsa Contreras, Jordan Quiroz, Hugo Araya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,16 +407,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,7 +504,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">

--- a/Evidencias Documentales/Iteraciones_2.0.xlsx
+++ b/Evidencias Documentales/Iteraciones_2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nibsa\Documents\GitHub\Portafolio_2.0\Evidencias Documentales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B92D7466-7B34-4398-AB1D-718D129DE40A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84F01804-1D6A-43E6-B6A7-1A4F0D058598}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>ENCARGADO</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Diseño de base de datos</t>
   </si>
   <si>
-    <t>Correciones Iteracion 01</t>
-  </si>
-  <si>
     <t>Script de tablas, secuencias,triggers</t>
   </si>
   <si>
@@ -91,6 +88,15 @@
   </si>
   <si>
     <t>Nibsa Contreras, Jordan Quiroz, Hugo Araya</t>
+  </si>
+  <si>
+    <t>Jordán Quiroz</t>
+  </si>
+  <si>
+    <t>Jordán Quiroz, Hugo Araya</t>
+  </si>
+  <si>
+    <t>Correcciones Iteracion 01</t>
   </si>
 </sst>
 </file>
@@ -410,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="A13:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -452,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,49 +478,70 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -522,10 +549,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,10 +573,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
